--- a/Prototype/Part list.xlsx
+++ b/Prototype/Part list.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Frog\Prototype\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D3A98-5DE7-4F59-9B52-AB6167117820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -244,37 +253,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="m-d"/>
+    <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -284,50 +301,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -517,26 +529,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
-    <col customWidth="1" min="2" max="3" width="28.71"/>
-    <col customWidth="1" min="4" max="4" width="34.0"/>
-    <col customWidth="1" min="5" max="5" width="35.29"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -579,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>12.0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -588,7 +605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -605,13 +622,13 @@
         <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -628,13 +645,13 @@
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -651,13 +668,13 @@
         <v>30</v>
       </c>
       <c r="F5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -674,13 +691,13 @@
         <v>36</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -697,13 +714,13 @@
         <v>41</v>
       </c>
       <c r="F7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -720,13 +737,13 @@
         <v>46</v>
       </c>
       <c r="F8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -743,13 +760,13 @@
         <v>46</v>
       </c>
       <c r="F9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -766,10 +783,10 @@
         <v>56</v>
       </c>
       <c r="F10" s="7">
-        <v>44198.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -780,10 +797,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -794,10 +811,10 @@
         <v>61</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -808,10 +825,10 @@
         <v>64</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -822,10 +839,10 @@
         <v>67</v>
       </c>
       <c r="F14" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -836,10 +853,10 @@
         <v>70</v>
       </c>
       <c r="F15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -856,23 +873,23 @@
         <v>75</v>
       </c>
       <c r="F16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="H2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="D4"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink r:id="rId6" ref="D6"/>
-    <hyperlink r:id="rId7" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" ref="D9"/>
-    <hyperlink r:id="rId10" ref="D10"/>
-    <hyperlink r:id="rId11" ref="D16"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prototype/Part list.xlsx
+++ b/Prototype/Part list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Frog\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D3A98-5DE7-4F59-9B52-AB6167117820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6C449-BBBD-410C-B92D-D180A5B61FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>For waterproofing</t>
+  </si>
+  <si>
+    <t>Axial bearings</t>
+  </si>
+  <si>
+    <t>Ball bearings</t>
+  </si>
+  <si>
+    <t>5.99/piece</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/reely-rillenkugellager-axial-chromstahl-innen-durchmesser-6-mm-aussen-durchmesser-13-mm-drehzahl-max-10000-u-min-214531.html</t>
+  </si>
+  <si>
+    <t>For decreasing friction</t>
   </si>
 </sst>
 </file>
@@ -539,10 +554,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -874,6 +889,26 @@
       </c>
       <c r="F16" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Prototype/Part list.xlsx
+++ b/Prototype/Part list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Frog\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6C449-BBBD-410C-B92D-D180A5B61FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBFEB6C-34AD-4139-B668-95331D11ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -300,6 +300,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -324,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -336,8 +343,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,7 +566,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,7 +577,7 @@
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -620,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -643,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -666,7 +675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -689,7 +698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -712,7 +721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -735,7 +744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -758,7 +767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -781,7 +790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -801,7 +810,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -815,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -829,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -843,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -857,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -871,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -901,7 +910,7 @@
       <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -924,6 +933,7 @@
     <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{F71D2042-41F2-488F-B2F3-91D92A60F832}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prototype/Part list.xlsx
+++ b/Prototype/Part list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Frog\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBFEB6C-34AD-4139-B668-95331D11ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30760EE-AC0A-4768-90D8-548D3437E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>For decreasing friction</t>
+  </si>
+  <si>
+    <t>Ultra sonic sensor</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Detect things</t>
   </si>
 </sst>
 </file>
@@ -563,10 +572,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -882,41 +891,55 @@
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>15</v>
       </c>
     </row>
@@ -932,8 +955,8 @@
     <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{F71D2042-41F2-488F-B2F3-91D92A60F832}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{F71D2042-41F2-488F-B2F3-91D92A60F832}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
